--- a/project/linkedinModelling.xlsx
+++ b/project/linkedinModelling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.shah\Downloads\DynamoDB training Session\ManytoMany\Linkedin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.shah\IdeaProjects\DynamoDB Master Class\Learn-DynamoDB-and-Become-Expert-in-fun-and-Easy-way-0-to-hero-with-Labs-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFC9309-031A-43BB-8422-D906A12DCAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6089E8-AA63-44DA-A87E-3144FAC6008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2556" windowWidth="18000" windowHeight="9252" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1104" windowWidth="18000" windowHeight="9252" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -330,15 +330,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>285404</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84082</xdr:rowOff>
+      <xdr:colOff>101874</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1358059</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142564</xdr:rowOff>
+      <xdr:colOff>1174529</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167654</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -361,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752379" y="1169932"/>
-          <a:ext cx="2268043" cy="1868232"/>
+          <a:off x="2570011" y="655582"/>
+          <a:ext cx="2269552" cy="1879848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D55344-39FB-4421-86C0-A5773FD76316}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +828,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G15" activeCellId="1" sqref="A4:B5 G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
